--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/45_Kars_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/45_Kars_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70B18AA1-8A11-4869-A668-7D90878306B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0811B42-139A-482F-9512-C756D50BDE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{9159E42B-C93A-460F-97A5-5998F8FD67B0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{F439E884-A309-44BA-8C34-172E627507A3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -931,13 +931,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C4A4BBAA-D311-4ED7-A21F-E770D0B302D4}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1890B2E3-D637-4976-9053-AA5568B3E6F7}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{607B51E8-16BF-4152-A548-C32151B83D16}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A93E1B40-B015-48D5-93E2-C4C39A6BD289}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{781BBE0A-39A7-416F-84AB-72094F63D455}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{014A090C-4776-4A98-A8BE-3EA79D2468ED}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D9C7C43E-96EE-460A-8F6E-A4E006019927}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{34CE1858-7450-4975-B817-BE4E343B2CD9}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{76E80B02-4A6D-4D54-94F1-5110F387BDB7}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{1FC61461-919B-4EAA-AD6A-01A1DE9B5A33}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{05C93893-8A38-43F8-AAC0-3AA3D39E5A79}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{2136C2BE-CF8D-4575-BAE0-1CA1827DFAE9}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{86894967-1599-49C0-AD68-91764B1E2CF4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{4F156423-B1BD-45DE-97A6-EDECBFB1D198}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1307,7 +1307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583DD622-9AB3-462D-93CF-306072304DFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAB44FF-6F98-4A39-A456-0E5E3B0559F8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2530,18 +2530,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{491E3664-CF77-4935-96AC-4CD5F04C4085}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5DED392B-83C5-4F02-8703-7FBA24D5EC0F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4B12D7CE-DCE7-4521-9A2E-B63025C1C1EA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D4ED40BE-7734-4B13-8B96-215EC57F70F6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{64133F52-81DA-49BD-9D05-7F33FB3F3BC6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{25AB0B5F-904A-4950-97D4-58D084E00378}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3237B5DB-5DB6-497A-BF68-406E080D1DC1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{061B05F6-CADC-4178-BAED-AB3D7B355CF5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E2869F3A-71AB-498A-B953-28AE4AC1C995}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E043C28A-8C1A-4889-87AA-4C320A5359CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06174961-88C9-4E8E-BD5D-74B38ED4E7C9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{57E50E4B-822C-4205-B204-39E1BD555992}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A3D74447-00A9-49BE-94BA-6006399D9281}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD4E4DDA-A27B-4C24-9221-1D884A449A14}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{718B7252-8486-4480-9421-AA6FFDDA6F99}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0DB13956-D5C3-41B2-8975-5276DDB59963}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB0DA0E6-B271-4BF5-B994-6D7CF9544CC4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{885EE779-26CF-4E28-B5C2-A3DB070E27EB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C08B86F2-A15C-4328-9A2D-4D6A97B3CD51}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A0670FB-A34E-44E4-A0BB-F5D936CA53FA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A29A6722-2E07-4078-B03F-19AE2D4576E2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{271242AA-2288-4D88-A8DB-8285B00189C1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9028677E-87DC-4165-8E8F-D57972EB986D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AD6FFB85-89F9-4EBB-BBFE-737B4B2830EF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2554,7 +2554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8308A43-D521-40E1-98A3-4952277B9D88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AE1CB2-D06C-4A13-83C9-30A8E71CBD36}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3762,18 +3762,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9BFA9AC3-CC2E-4D41-900A-728BA07B9030}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B786785B-82BE-40AE-8C07-B6E2C3781B9E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{75F40C4E-82EB-4DF6-97A3-0B017817EAF0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2EBAF776-D731-4E93-AE9B-DE752DAE3651}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{78080F6C-29E1-4B35-BDF8-5BF9B1C7C06E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{29DAC0CA-F967-42FB-B976-8C5C10E133DB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D40AAA4-2BB8-465D-90FC-8E9DA610BDF8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2FD09DD3-F0F3-4520-A750-195ED290ED7E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D120EAE-D831-427E-B85A-E74779A8E5FD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7059A3E9-3D85-408A-9C06-16D90C063CB0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E3C33FDC-7D00-4944-916A-BE96DAD38450}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4FEC3449-E908-46F7-9A99-05661E5C35AE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{330D9183-7218-4EFB-8F19-E7E2C416EEDF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2EDFDFEC-4ACB-4180-BCAA-F739A73CFA9B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9DF37E15-82BC-4051-94C6-7044E26D63A5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{42A6378E-6843-4432-9FFA-F372BAA4A747}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A881BA67-87BF-4F7D-A493-E1FA3EDA0DBE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{25DBB560-1721-4B61-BB47-48590A1710F9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{19B5283E-809A-499A-B835-0D953837D925}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E244AA5A-5254-40E0-A556-FE8A2FDB2208}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0BEF39CA-7127-4AD2-8BA0-E7E725CA8B76}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E28CF107-5105-4473-A6A8-5E3A09F25A81}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8CAEB48B-873A-4D4F-A9D5-2544608B60CC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{71E4FFCA-DE6F-43EB-AEB7-295595CC619F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3786,7 +3786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66360836-94D8-4ED7-A51E-FCC05558A5E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F829B3-A48F-47D4-9538-B463CFA312F5}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -4994,18 +4994,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DC6C7445-39CA-43C2-ACC9-E73A3524F357}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C729C88D-8B03-4A45-9205-F9E9B363DA4D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E5BFB71B-3D22-4D7D-959A-EE9031D1D20B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6C2B4FE0-233D-4383-9E11-EA472925CC4E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0C2710B4-F40E-416C-82B1-3AB4053A16B7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BC42F630-D6C0-4391-91F9-819F6303E03E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA125181-1640-4C61-AC05-CF281BCB69AF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B18A7BDC-D8AC-419E-9D71-AAAF27729636}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DB2B157E-5CB9-461C-B6DF-426EE84534C4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9574D86D-A5B6-4D5B-9F4A-33F3AF82F4A5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{70100640-71A8-4598-9A25-A168C9FF3346}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{19A35D10-B9F8-4C8F-A32E-060363328B7C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4D6E328-E649-4955-8BB9-99E5D8A868F7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6A6CCCA6-E39D-48A4-A327-7A4B0F2CAD00}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5B7FF0C0-D731-40C0-983C-1C59794216ED}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EF90E8D3-9C77-4364-A9C5-002D3314C9BB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B94C2157-7C2F-4733-AFB6-264D484F0312}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C5D938DE-949C-4F4E-8989-B2CF49915021}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12BB6F0A-5EB7-4FC0-8ADD-2350143A7A8F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F453F188-B221-45FF-9CBD-4401FEF36DE3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{629680F8-4A84-4D09-848B-70CC482EF85A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E6E4ACA3-C05F-4EE2-BD85-3499CED6639F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{00CA3314-990C-422B-A7E7-6AD79C09D674}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{00990A16-7BE9-41DE-8768-61DE7B1F3D05}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5018,7 +5018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4031D627-DD56-4B2B-A939-0FA89FF84CD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADB304B-E117-4EB8-B775-B226E3A0162E}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6214,18 +6214,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CEE6AB85-5A7E-462D-A656-763FC9388D88}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9BAC97F0-B608-4D20-A188-1BD92ED5C941}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F801B52A-E152-4392-9B08-BE3B72CF15D3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{69D00887-32B1-4964-89EF-2E83767B0CDB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C330CD1E-4A41-4330-941B-4E29A17BFECD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{284C9916-3858-4E74-A7D2-B5357234132B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E102B201-BA5A-4FE0-88D6-31CECB43CBAD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{80B52573-5D31-45EB-928C-21BBA6FE9CA8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C72494F2-22BB-4E93-AFF9-5566337DC356}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6598AA7C-4582-46FB-A76B-6E0695E250D6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B3D7C258-EDA9-4E28-A350-055EF2640A4B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3EA87C37-3725-4EB7-82FF-48398910B416}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E34BA1CB-08FA-4DA9-A22D-261BF6E6311D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{762DE60D-FE94-4315-B615-2CD3E6575E23}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{823F2174-55ED-4971-9A93-04E22EF331C1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8B025307-E72F-4212-A5BB-5607F6CBDE97}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{269046BA-3928-49C3-AF61-70D60FD07CDB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B5F0B595-C2A0-4650-85CE-56E39F28766D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA5B3F44-B4C3-41FB-9533-3830C0C1F0A6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1CE78568-A397-4678-B705-8DE55BD2D337}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6FEA8BBC-8A09-43A4-97F2-88685604D258}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B8C6A9F0-133A-4A16-AE64-CC881519A88D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{952E94F7-5215-447F-982A-18D69B514660}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0506189B-76C9-4BF7-AC83-D598E724FC5C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6238,7 +6238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBBBEFB-4DB1-4F98-B2C1-1FDFA7F7EA06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD66784-7789-4BDD-AE00-9FE33D731AF3}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7461,18 +7461,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{78747D34-0949-4D6F-A51B-9A9A6AECDDBE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9201EFAB-A65F-4F93-B261-20F383F6E45F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5A8822A4-C147-4D13-962B-6A94B9DB2CFA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8A4F7152-0EB3-4C26-A3A0-6C813AEEC6FC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4EEA2AE6-6CC0-4FE1-A0BE-CDE6D89D1DA4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{34FADC5D-934C-4386-BF85-014A514ED868}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EDDC5414-4E00-4F41-A4A1-B000C44C303D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EBBCAB4D-98AD-4AF2-AC4D-5F0952F48CF4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FE431DF2-2216-42A0-A10F-429D55F7153B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2B476F77-0363-4698-AB84-1D75357FEB20}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D47EF2DF-D870-43BB-8ACB-D867CFF4AA29}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B42705FF-7D23-4714-8B6F-253766B8A792}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{70027DD2-BC92-4E23-9661-2B12D23236AA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{192BE99F-21EA-4C11-83AC-B434FAAD105A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{901A8D35-9BBC-41D9-AD71-405E0D6BF5D6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{42883C1F-DAE1-4EC8-A039-5FFD0538D9EC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C6EE451-1701-4633-90CE-E9884352C7E4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{92F5A072-2825-4D1A-8A72-02B7DFBDF040}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4652DC2E-C5E8-46B9-BEF5-9F5F617A661E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2311709B-4D96-416C-881E-8AC185AED229}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8260B30A-6FB2-4E24-A113-AF59C1B60319}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9FA881C6-14DE-42D3-A06F-66A40E4E68B8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C570220-6B9E-4E06-BF53-26355F27D33A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D89040F0-A9B3-4D52-AA50-9EF289D098C2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7485,7 +7485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C70D8C2-3C34-45EF-8C61-BA1D72EB27D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137CB7C1-E264-4E74-AFEB-68719C1C3DDB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8708,18 +8708,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05EF2F14-8A73-4034-8E28-E67C81FD25A6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4F97A502-08B4-43D9-9B9F-9245CA5F5002}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3D094678-9292-48BD-AAEA-37E6DB6CC5F0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2A5094DC-83E9-4446-A37E-828629BE2049}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A8EFC9EE-C64D-4C49-BE66-D3DFB5D532D7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3338A139-EC27-4887-9CC0-75374AD13CE6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCCAF119-D259-48E5-B7F9-57F63B434295}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{93C9CD23-44AC-43C4-8737-BF328DC058E3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C78E52C4-69F2-4656-86EA-2F08582E3002}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6F72B7C1-6A87-4BB5-8D7B-01198F5B330E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BA706F02-07FE-4567-BC2D-EBBF469EB48D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{457A47E6-2939-4BFF-B618-3B49D3070FA0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DD56AEB3-9514-406D-B129-E5718FDC9DE7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D402456-1E19-49A3-89CD-50876243F8C1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5E543DCC-9BE9-4535-AF2C-0037686F015F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BA061F90-775B-4ECE-85A4-4028C34887D2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9DAA7104-08FC-4B6E-8192-6688DE0F0548}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{34CFD688-E3EA-41ED-ADF6-C1A96EC6D123}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{783CE3C0-0E25-459D-8D26-DB0C14C1B230}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7EAAB6CF-96DD-4A27-A0E4-1BD240A81606}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B95365C5-2941-4164-B3C4-C3445490E1BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BA59E3DB-44D0-496A-8147-F317ACC16DD1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{422C5F14-D9AF-4A2A-AF52-7FFE8126547E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4B1059FF-A7F2-4DAC-AB28-E43D0B982ED8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8732,7 +8732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D38B9B-0B6F-42BE-84BF-DC12B12F6778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F072000-65E5-4D2F-ACFA-3BC06AC82676}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9955,18 +9955,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BBC8ADFA-67E5-4BDB-9658-C3D54A4EE046}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D055117-4289-4F85-A464-8A78BD99D081}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B8550B20-F4AC-4F48-ACFF-9859CCF2B32E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DD3939F7-EBEA-4AB1-A8DC-C92FCC23DE12}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{35432558-3F46-408C-BEAA-243B58F01B91}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D4BE487E-6B9F-41A8-B2AC-B7F17437547C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{951BC392-B1D6-4216-8E31-6696DD13BA4C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF3C27FA-5FAC-4DC0-827E-45F680059DBB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{62DB8FD2-958C-4A0A-A37B-199612F9DFEE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B235D228-737A-428A-ACB4-E5A660FB31E6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C18D2AFB-EA88-4892-BF32-68138B2C49F2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0CF640DB-EACE-43BB-A237-FBDC14CEF311}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{872EDF07-19B3-4797-8E6A-36B9C1BF95A1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D3406EF4-720F-49E5-89EC-32BC831162C7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AC9BA83E-3C63-4A5D-B406-3043E326AB24}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1C94B120-31DA-45A5-B186-3C3F4BF942BD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A99DC549-CAF4-4D44-A83F-C761A063053F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{091532C1-C438-4AAC-BD78-2E26D0D52D80}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{84B3A296-AB39-4E30-81C0-6C9145BF93EE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27E2CD57-3C38-4D9A-8B41-B7694B3790EF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ACF9B9A6-4702-4F83-B7FC-9D24122751DE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FCBB371E-8D12-4EEE-B6FE-BB2D68CC6A94}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FFD1EC77-7316-49F5-985A-A4E8BB0871C6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D52EC4EE-6683-4B37-925A-939817826A8C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9979,7 +9979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C61994A-5FB8-4782-9B7D-3CF4E66EA294}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A18CE49-1B49-4F34-B413-82DEBF28B3A9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11198,18 +11198,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{049E35A6-6706-44D3-B5AA-B116374EDC13}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE8BEFF6-E57C-48AB-9D28-9EB82DA92480}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2A0A865E-7585-4EE0-A9A3-BA343164CF98}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{494DB682-2A17-440D-B842-7E23E675BF44}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F8EF2AE4-D105-4E36-B86D-DF0E47588C6B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{13300C2D-3DFA-41EA-B0F5-C87C3A7D5994}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6FF0F7A1-C070-468C-AA14-7215D3C019A5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36FD35CF-6184-4AC6-AE55-0AF0D9FEA425}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8F5A7A1A-7410-4A68-A60F-BD7451513631}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D1159E8D-3AE7-473A-81A9-C8CE29320DB3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{74FEAD61-6586-4F1D-A644-77746A0EEBEE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B18B1DF8-92DA-4E98-A9D8-1CA9D0CEE1D6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5F50191D-C783-43CC-B9B9-1960D3CF6720}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{047BFFE0-36DF-451B-995D-B0B06240FCAA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{88C3CECF-0735-4093-B903-383E633DCC22}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BBF9B9D3-E3E7-4536-9C93-C77982F786A0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4C263A8D-A79E-46EB-93F8-3F3FA21D3E1D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CFC4360B-A484-4685-B739-C360E63C6428}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E183AE7F-B1A2-4FF9-9A92-ED3FDFA9F5AC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D3FD4C8-2EDA-497D-9410-3A9D2EEB9D86}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8903B809-186F-4AAA-83FD-35059C59A20F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{94E0296A-7E9A-4F15-B689-EA85144B3B1C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E868A1D9-364D-449F-B737-680C08296977}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{911D02A1-AE6D-44F8-89A1-0476188F650D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11222,7 +11222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A059130C-1FC3-41AC-93AE-13B89EA72EDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143A2F76-F945-45CF-B018-2F7532500034}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12429,18 +12429,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{248EF893-7927-48E4-AA73-4733D10F096E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{314266D7-B5F1-49D3-BC3A-EC1E6DC1C5B0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3BEEFC52-3450-4544-8D78-3A3717674008}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{99506C42-2053-41B9-A6A4-778AF15A7FCC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E26185AD-54D0-4DF6-9F5E-E7015FA92176}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{300753E2-9FFF-4DAC-AC43-132A78896269}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3CCD7923-31E6-455B-9C10-D3D9B36C1E8D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E75C2E2-CFEB-4019-8711-31388C6AC0EC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BD6D0312-444C-46B6-ADFB-04D9C40E4D1A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B89F0122-6642-4F24-AF9B-BCC5730BF49C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{786CE74A-5A5A-4E57-8AE3-DA9607174DE8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E5FDC00D-4CCB-4E11-84DB-7B34EC8814EA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D7F644DE-514A-4728-8A83-304A06A3F5D0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A98074A9-B525-4E7E-A321-DFB21F25FACE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B84D97E6-A523-4C34-80A4-F90DCFD02204}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F012B8DB-72B8-4F4E-8746-EF57EB01AADA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{323ED53A-5B24-47E1-87A8-8A1D7E17D1D8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BFB36068-4283-412C-B6C2-98221FD12AC8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00312CBE-476D-497A-8DE8-FD2108B088EF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EEF531DE-DAB1-4628-B7BE-C43080BAE34B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ADE00A3A-413C-436E-915D-7640FDBD2145}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EC6F5125-3F72-47DA-9A37-012BD491E8D3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5C0B0497-630A-4E05-B28A-563100DF28F2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4973FF6B-5078-406B-8857-C2E80ED1DA7F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12453,7 +12453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E394478-0667-48CB-A971-0AEEB7247BD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4197012D-91FE-4003-9E46-072BBD3AD00A}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13661,18 +13661,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{501BEA57-97C8-4595-A42E-C760573B2B2F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8611C2E9-6546-4FE9-97B3-8535FF705FDC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BFC5256A-2956-42BF-BA2D-5C3B1C708F11}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{516E9FE6-3781-4B9C-881A-6247F44C7344}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CDF5D406-C9D1-42F7-ADBF-412A909B6E99}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2B655E2E-787A-48B3-90AD-8F305388E5C9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{20146282-41BA-4FE4-A5B8-A698B4029291}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3646C35C-DB85-4188-ACE5-48EDE9D4FD04}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4FA4828D-687F-4F97-9227-808F0154A99B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B739EB78-A7A8-4A8C-89EF-B144266D36ED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B58E418-DAE0-431A-8845-36B4E038E485}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D138072-78B8-4ECC-A301-6FC5DD96F820}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D646FB2-EF88-4257-ABE5-18A1F9BF5D16}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{70A6BD04-BBF7-48DA-B514-59B2C5BFE801}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{39706421-86A0-4C49-A077-FA6D87AD91D1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4EBC3001-7D84-45F5-A711-74B16BF02FB4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B0A65947-629A-4A89-8B96-F8C369B03C97}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{50CCF3B8-487F-460D-90B9-16A6AF89D6F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA82EF52-3D25-409E-98DB-BF0DEACF9F57}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3CABAE7F-F604-43D9-BA5B-A10C12B45F15}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BF59B47B-548D-486F-BBA9-9D601CCC6C62}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1C67695B-F5E6-4E94-A78D-60B6506AA2C0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2317F55B-A047-47C8-B4AE-394E58A7CF39}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{91B19EC5-0F7D-4ABC-8DAA-6335CF46FE48}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13685,7 +13685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C231C69B-057A-4877-AEE5-6D5F9B0137DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E1EC33-288E-4EC4-9764-AD4B0238977F}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14893,18 +14893,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E09FD38-50FE-4FEE-809B-7645BA2F475E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91CD82FA-D5D1-454E-BBA1-93A23D120247}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C03ACD13-109C-48BA-A9C6-62EB82E048D9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2A25FC9D-E5A9-439E-AD79-3720BA1A7649}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5EA342D3-044E-489F-8619-B9EFDA2E4805}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{34FB3EA3-B3FD-44C9-AFA5-1209EA66EE28}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14AA1FB1-2F55-4885-B874-9A741A74570F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B08FE4E0-39AB-4C29-B6B5-12C2F9DB78BD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AEFC84F9-25FE-46C1-AEE7-1A7D32321BCB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FB5028CD-B907-4C6B-931B-D9A02DFC8370}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75A3C39D-5260-4BCD-9DEE-BF67EB441E72}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F81B24F-710D-4671-A1F8-457AEACFD621}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB7EF0DF-53F7-40CD-ABA1-C4C66F8B312A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DAC775BD-4FFD-4521-8072-38E520880666}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0D812BAE-7741-4D21-B368-AEE8781CE81F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1C50A7C3-51C0-436C-BBDA-2F502AC800CF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A256B22E-B4A7-4686-A58F-A387B6E64921}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C54D7878-8CF8-4FE7-A53F-9267F2D7A260}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0CD3A737-82C5-4E9C-A779-B3B912B53087}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CE05B136-4DEA-4391-B8FE-E8BC3925C576}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{97DED974-E574-4ACF-BD55-E3A5E8EFFCB8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5685E7BA-4C7D-4AAC-B070-AAA1F59FDBD7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C174025C-9016-46BF-8622-774C2B902BA9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{259E6A34-7CB2-4E56-95D5-B67249800BDF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14917,7 +14917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764C90D9-9771-480D-9BD2-33ED922CEA9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BF4814-EBEA-42AC-88A2-2C9D2B8FC6BD}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16125,18 +16125,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{25FA401A-1316-444F-B89E-D9FAEE8F6C7B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6E9B77E5-241E-4239-A669-FBE7CFAD6EA4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{25E88C58-A3B0-41A4-9618-D40267A11D64}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A5032D24-FECA-48CC-A4CC-52264C843F02}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E3CC4E80-A785-46AC-9CB6-51A946DD9C61}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3716ADED-1DF0-4756-9143-B1C47B3EB2FA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5CDB8674-117B-4D52-8CBB-53805323A771}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9513DED-4FA8-40B2-A961-712FEE63EEA8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1E15ED99-1DA1-42AA-96DA-54B3690BEA31}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FC41607A-2258-44FF-9AD3-57757DB31D7D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2BABD9B7-751D-46B2-AA63-531CE4F3E75C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7DFE5733-2392-47CD-898F-7AD34157CE71}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7704DDDB-D9BE-4573-A356-4C97B87C15D1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C45B3DA-9726-4182-AC2A-6151BD388A35}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{35F03CFB-CFF5-4B4A-8B4D-35F0C243F8D2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B5BA7E67-3F8D-4D93-A13A-00F4D25F6DD1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F735484B-F8E5-404E-8290-340AAC496A94}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3369711E-7293-4E92-8C1D-B2C31009924A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D9E125C5-6146-4029-BD47-D00005DA6C50}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{022A509E-0F79-4C83-A343-0895661E3437}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{49BCB296-0A13-4F82-83D0-470E2F8A16D0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C7783FBE-4E55-4149-95D4-F8B95142A6BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7EA9AA1-08B7-465A-9C9B-49A4D9251098}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{737B74C6-4D22-48D2-8EF9-C552275D0409}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
